--- a/Ganadería/17.5.xlsx
+++ b/Ganadería/17.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCN\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Ganadería\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2622F0A4-2987-49E0-A7C9-5EB648CD92B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C46FDE-605F-4ABC-A170-F2A35807BBE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9F0CE4F5-31BA-4097-969C-343FBCDF4799}"/>
   </bookViews>
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{75F0C3B6-D41E-439F-8368-E3BE9AEBBD11}" name="Importaciones_toneladas_acumuladas" displayName="Importaciones_toneladas_acumuladas" ref="A2:G6" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{75F0C3B6-D41E-439F-8368-E3BE9AEBBD11}" name="Importaciones_carne_acumuladas_en_toneladas" displayName="Importaciones_carne_acumuladas_en_toneladas" ref="A2:G6" totalsRowShown="0">
   <autoFilter ref="A2:G6" xr:uid="{84F67D83-2703-4ECB-B6F4-EB9DE0F11CF0}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{577EE1BE-0173-41FB-8BB7-92267AE1FA36}" name="Id_producto"/>
@@ -488,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF60BA3-970A-4510-BBE5-74D285A05D58}">
-  <dimension ref="A2:G6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,6 +503,7 @@
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>

--- a/Ganadería/17.5.xlsx
+++ b/Ganadería/17.5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Ganadería\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojas.DESKTOP-91OCPB2\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Ganadería\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89BC161-5F3C-4DCF-8B7E-8A756CF21072}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F15E9A-AA90-4BA8-B876-CB363B6544AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C3FE0F7F-E924-4772-AF9D-39E50E23893D}"/>
+    <workbookView xWindow="-23148" yWindow="-2160" windowWidth="23256" windowHeight="12576" xr2:uid="{C3FE0F7F-E924-4772-AF9D-39E50E23893D}"/>
   </bookViews>
   <sheets>
     <sheet name="importacion x destino usd" sheetId="1" r:id="rId1"/>
@@ -1724,7 +1724,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1780,7 +1780,7 @@
         <v>11</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
         <v>419</v>
@@ -1809,7 +1809,7 @@
         <v>11</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
         <v>419</v>
@@ -1838,7 +1838,7 @@
         <v>11</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>420</v>
@@ -1867,7 +1867,7 @@
         <v>11</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
         <v>420</v>
@@ -1896,7 +1896,7 @@
         <v>11</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
         <v>420</v>
@@ -1925,7 +1925,7 @@
         <v>11</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
         <v>420</v>
@@ -1954,7 +1954,7 @@
         <v>11</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
         <v>420</v>
@@ -1983,7 +1983,7 @@
         <v>11</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
         <v>420</v>
@@ -2012,7 +2012,7 @@
         <v>11</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>422</v>
@@ -2041,7 +2041,7 @@
         <v>11</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>422</v>
@@ -2070,7 +2070,7 @@
         <v>11</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>423</v>
@@ -2099,7 +2099,7 @@
         <v>11</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>423</v>
@@ -2128,7 +2128,7 @@
         <v>11</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>423</v>
@@ -2157,7 +2157,7 @@
         <v>11</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
         <v>423</v>
@@ -2186,7 +2186,7 @@
         <v>11</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
         <v>423</v>
@@ -2215,7 +2215,7 @@
         <v>11</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F17" t="s">
         <v>428</v>
@@ -2244,7 +2244,7 @@
         <v>11</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F18" t="s">
         <v>428</v>
@@ -2273,7 +2273,7 @@
         <v>11</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
         <v>428</v>
@@ -2302,7 +2302,7 @@
         <v>11</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
         <v>429</v>
@@ -2331,7 +2331,7 @@
         <v>11</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
         <v>429</v>
@@ -2360,7 +2360,7 @@
         <v>11</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
         <v>429</v>
@@ -2389,7 +2389,7 @@
         <v>11</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
         <v>430</v>
@@ -2418,7 +2418,7 @@
         <v>11</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
         <v>430</v>
@@ -2447,7 +2447,7 @@
         <v>11</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
         <v>430</v>
@@ -2476,7 +2476,7 @@
         <v>11</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F26" t="s">
         <v>430</v>
@@ -2505,7 +2505,7 @@
         <v>11</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F27" t="s">
         <v>430</v>
@@ -2534,7 +2534,7 @@
         <v>11</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F28" t="s">
         <v>430</v>
@@ -2563,7 +2563,7 @@
         <v>11</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F29" t="s">
         <v>430</v>
@@ -2592,7 +2592,7 @@
         <v>11</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F30" t="s">
         <v>430</v>
@@ -2621,7 +2621,7 @@
         <v>11</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F31" t="s">
         <v>430</v>
